--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873462.9463280629</v>
+        <v>-876014.4969819114</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.7321536188796</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759555</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.4645365582629</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>126.4207177329916</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>194.8716809857906</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H3" t="n">
-        <v>89.65963851412518</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I3" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.54469461957575</v>
+        <v>38.79650760778512</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496179</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S4" t="n">
         <v>189.8639731922165</v>
@@ -874,7 +874,7 @@
         <v>286.2121353820159</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>29.7649898211764</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>248.8861462674466</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.73899958301</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>6.882988967594683</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>52.90622424463498</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,10 +1187,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>19.6931595275547</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>61.73332682041254</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>194.3883434190789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722636</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.76543552489446</v>
+        <v>193.996253843243</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>65.56423921895227</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>179.6926686226141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174143</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.0883799718226</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>86.80636739625309</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.7286184012996</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999789</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>108.2950343703265</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428216</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487366</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703264</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053466</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.8852567038646</v>
+        <v>161.8852567038643</v>
       </c>
       <c r="C34" t="n">
-        <v>149.3000976205552</v>
+        <v>149.3000976205549</v>
       </c>
       <c r="D34" t="n">
-        <v>108.0548098764502</v>
+        <v>130.6687495401394</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.8603848811763</v>
       </c>
       <c r="F34" t="n">
-        <v>127.4743245448586</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>147.5774148141962</v>
+        <v>147.5774148141959</v>
       </c>
       <c r="H34" t="n">
-        <v>122.3479893681512</v>
+        <v>122.3479893681509</v>
       </c>
       <c r="I34" t="n">
-        <v>63.31911284049286</v>
+        <v>63.31911284049256</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.42852323204901</v>
+        <v>48.4285232320487</v>
       </c>
       <c r="S34" t="n">
-        <v>163.0795625235719</v>
+        <v>163.0795625235716</v>
       </c>
       <c r="T34" t="n">
-        <v>199.4587268492156</v>
+        <v>199.4587268492153</v>
       </c>
       <c r="U34" t="n">
-        <v>268.2377509111715</v>
+        <v>268.2377509111712</v>
       </c>
       <c r="V34" t="n">
-        <v>234.1909198457553</v>
+        <v>234.190919845755</v>
       </c>
       <c r="W34" t="n">
-        <v>268.5762748585183</v>
+        <v>268.576274858518</v>
       </c>
       <c r="X34" t="n">
-        <v>207.7629319109645</v>
+        <v>207.7629319109642</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.6379298740221</v>
+        <v>200.6379298740218</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265257</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.693890253127</v>
+        <v>1632.688178027559</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.731373312715</v>
+        <v>1263.725661087148</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.465674705965</v>
+        <v>905.4599624803973</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.465674705965</v>
+        <v>519.671709882153</v>
       </c>
       <c r="F2" t="n">
-        <v>821.4797699163568</v>
+        <v>108.6858050925454</v>
       </c>
       <c r="G2" t="n">
-        <v>406.3950511722217</v>
+        <v>108.6858050925454</v>
       </c>
       <c r="H2" t="n">
-        <v>108.6858050925453</v>
+        <v>108.6858050925454</v>
       </c>
       <c r="I2" t="n">
         <v>66.21592154951945</v>
@@ -4331,22 +4331,22 @@
         <v>254.0744928369595</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319022</v>
+        <v>586.3643121319017</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900982</v>
+        <v>1035.50097790098</v>
       </c>
       <c r="M2" t="n">
-        <v>1566.921495383895</v>
+        <v>1566.921495383894</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.554760801561</v>
+        <v>2111.554760801559</v>
       </c>
       <c r="O2" t="n">
-        <v>2612.501248106873</v>
+        <v>2612.501248106872</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356408</v>
+        <v>3005.546484356407</v>
       </c>
       <c r="Q2" t="n">
         <v>3252.534341412641</v>
@@ -4355,25 +4355,25 @@
         <v>3310.796077475972</v>
       </c>
       <c r="S2" t="n">
-        <v>3200.225838528232</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="T2" t="n">
-        <v>3200.225838528232</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.528143848443</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.528143848443</v>
+        <v>2979.733190132401</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.759488578328</v>
+        <v>2782.893108328572</v>
       </c>
       <c r="X2" t="n">
-        <v>2346.293730317248</v>
+        <v>2409.427350067493</v>
       </c>
       <c r="Y2" t="n">
-        <v>2346.293730317248</v>
+        <v>2019.288018091681</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3156003142904</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8625710331634</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D3" t="n">
-        <v>607.928161371912</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6907063664564</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1561483933415</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7864839520672</v>
+        <v>165.7864839520669</v>
       </c>
       <c r="H3" t="n">
-        <v>75.22119252365796</v>
+        <v>75.22119252365769</v>
       </c>
       <c r="I3" t="n">
         <v>66.21592154951945</v>
@@ -4410,19 +4410,19 @@
         <v>159.2853526912741</v>
       </c>
       <c r="K3" t="n">
-        <v>396.5106591183473</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L3" t="n">
-        <v>761.8119001858317</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M3" t="n">
         <v>1207.458086537445</v>
       </c>
       <c r="N3" t="n">
-        <v>1679.30784629592</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.738397943177</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P3" t="n">
         <v>2398.00944543187</v>
@@ -4443,7 +4443,7 @@
         <v>2004.532201264789</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.380093033047</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W3" t="n">
         <v>1515.142736304845</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.7831091436643</v>
+        <v>2108.40507007741</v>
       </c>
       <c r="C4" t="n">
-        <v>74.84692621575732</v>
+        <v>1939.468887149503</v>
       </c>
       <c r="D4" t="n">
-        <v>74.84692621575732</v>
+        <v>1789.352247737167</v>
       </c>
       <c r="E4" t="n">
-        <v>74.84692621575732</v>
+        <v>1641.439154154774</v>
       </c>
       <c r="F4" t="n">
-        <v>74.84692621575726</v>
+        <v>1494.549206656864</v>
       </c>
       <c r="G4" t="n">
-        <v>66.21592154951945</v>
+        <v>1455.360815133849</v>
       </c>
       <c r="H4" t="n">
-        <v>66.21592154951945</v>
+        <v>1455.360815133849</v>
       </c>
       <c r="I4" t="n">
-        <v>66.21592154951945</v>
+        <v>1455.360815133849</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501786</v>
+        <v>1500.102109334508</v>
       </c>
       <c r="K4" t="n">
-        <v>314.317742817943</v>
+        <v>1703.462636402273</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886842</v>
+        <v>2019.220531073014</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897966</v>
+        <v>2362.532081574126</v>
       </c>
       <c r="N4" t="n">
-        <v>1313.970173580891</v>
+        <v>2703.11506716522</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213392</v>
+        <v>3001.68228379772</v>
       </c>
       <c r="P4" t="n">
-        <v>1844.492540894131</v>
+        <v>3233.637434478459</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891644</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.57327976542</v>
+        <v>3220.718173349748</v>
       </c>
       <c r="S4" t="n">
-        <v>1639.791488662171</v>
+        <v>3028.936382246499</v>
       </c>
       <c r="T4" t="n">
-        <v>1418.00135927388</v>
+        <v>2807.146252858208</v>
       </c>
       <c r="U4" t="n">
-        <v>1128.898192221338</v>
+        <v>2518.043085805667</v>
       </c>
       <c r="V4" t="n">
-        <v>874.2137040154514</v>
+        <v>2518.043085805667</v>
       </c>
       <c r="W4" t="n">
-        <v>874.2137040154514</v>
+        <v>2518.043085805667</v>
       </c>
       <c r="X4" t="n">
-        <v>646.2241531174341</v>
+        <v>2290.05353490765</v>
       </c>
       <c r="Y4" t="n">
-        <v>425.4315739739039</v>
+        <v>2290.05353490765</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="D5" t="n">
-        <v>1012.316163281155</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>626.5279106829112</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1805.335962651109</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1805.335962651109</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1550.651474445222</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W7" t="n">
-        <v>1261.234304408261</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.244753510244</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.4521743667135</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3099.73599366253</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3099.73599366253</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2746.967338392416</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.5785797246257</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967188</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="V10" t="n">
-        <v>1449.426344633373</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.009174596413</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X10" t="n">
-        <v>932.0196236983955</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.2270445548654</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5048,7 +5048,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396419</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359458</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614405</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>221.343178181171</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>221.343178181171</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951537</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536377</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133951</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.923811518855</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.506641481895</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.517090583877</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583877</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,7 +5692,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1061.366640084766</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5780,19 +5780,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.6979859831845</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>755.7618030552776</v>
+        <v>493.2161050975143</v>
       </c>
       <c r="D22" t="n">
-        <v>605.6451636429418</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="E22" t="n">
-        <v>605.6451636429418</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="F22" t="n">
-        <v>458.7552161450315</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6069,25 +6069,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011268</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797744</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>819.1436823052488</v>
+        <v>819.1436823052547</v>
       </c>
       <c r="C34" t="n">
-        <v>668.3355028905466</v>
+        <v>668.3355028905528</v>
       </c>
       <c r="D34" t="n">
-        <v>559.1892302880717</v>
+        <v>536.3468669914221</v>
       </c>
       <c r="E34" t="n">
-        <v>559.1892302880717</v>
+        <v>430.4272863033652</v>
       </c>
       <c r="F34" t="n">
-        <v>430.427286303366</v>
+        <v>430.4272863033652</v>
       </c>
       <c r="G34" t="n">
-        <v>281.3591905314507</v>
+        <v>281.3591905314502</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7753628868535</v>
+        <v>157.7753628868533</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>191.8199377215876</v>
+        <v>191.819937721588</v>
       </c>
       <c r="K34" t="n">
-        <v>471.2764564904181</v>
+        <v>471.2764564904188</v>
       </c>
       <c r="L34" t="n">
-        <v>879.4423069096506</v>
+        <v>879.4423069096512</v>
       </c>
       <c r="M34" t="n">
-        <v>1319.219265883977</v>
+        <v>1319.219265883978</v>
       </c>
       <c r="N34" t="n">
-        <v>1754.396393787278</v>
+        <v>1754.396393787279</v>
       </c>
       <c r="O34" t="n">
-        <v>2141.692930739555</v>
+        <v>2141.692930739556</v>
       </c>
       <c r="P34" t="n">
-        <v>2452.135642556405</v>
+        <v>2452.135642556407</v>
       </c>
       <c r="Q34" t="n">
-        <v>2589.101133526597</v>
+        <v>2589.101133526598</v>
       </c>
       <c r="R34" t="n">
-        <v>2540.183433292204</v>
+        <v>2540.183433292206</v>
       </c>
       <c r="S34" t="n">
-        <v>2375.456602460313</v>
+        <v>2375.456602460315</v>
       </c>
       <c r="T34" t="n">
-        <v>2173.983140996458</v>
+        <v>2173.983140996461</v>
       </c>
       <c r="U34" t="n">
-        <v>1903.035917853861</v>
+        <v>1903.035917853864</v>
       </c>
       <c r="V34" t="n">
-        <v>1666.479433161179</v>
+        <v>1666.479433161182</v>
       </c>
       <c r="W34" t="n">
-        <v>1395.190266637423</v>
+        <v>1395.190266637427</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.32871925261</v>
+        <v>1185.328719252615</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.6641436222839</v>
+        <v>982.6641436222894</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580114</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954149</v>
@@ -7573,25 +7573,25 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7816,40 +7816,40 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T2" t="n">
         <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
-        <v>124.5754258981696</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>154.3692877316224</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>157.4865618735084</v>
+        <v>127.234748885299</v>
       </c>
       <c r="H4" t="n">
         <v>144.803454668018</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671982</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856296</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.8192178271973</v>
+        <v>24.58839950885178</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.787486664675853e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.682581879676</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.44497470121385</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.6212754172145</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>80.44045370237477</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>25.79551989096926</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788584</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194242</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22.61393966368949</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.4872391684965</v>
+        <v>23.62685428731995</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>127.4743245448583</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1200300.337982957</v>
+        <v>1200300.337982956</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1200300.337982957</v>
+        <v>1200300.337982956</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1200300.337982956</v>
+        <v>1200300.337982957</v>
       </c>
     </row>
     <row r="12">
@@ -26335,10 +26335,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="L2" t="n">
         <v>224789.2189323854</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1324592.616629868</v>
+        <v>1324592.616629867</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390014829</v>
+        <v>3947.344390015413</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237807</v>
+        <v>216562.4822237808</v>
       </c>
       <c r="K3" t="n">
-        <v>952.8885570181907</v>
+        <v>952.8885570182784</v>
       </c>
       <c r="L3" t="n">
-        <v>14357.37878245814</v>
+        <v>14357.37878245836</v>
       </c>
       <c r="M3" t="n">
-        <v>90125.36714668547</v>
+        <v>90125.3671466852</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678118</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678119</v>
       </c>
-      <c r="K4" t="n">
-        <v>10557.08828678121</v>
-      </c>
       <c r="L4" t="n">
-        <v>16462.45469549447</v>
+        <v>16462.45469549455</v>
       </c>
       <c r="M4" t="n">
+        <v>18547.94754987468</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18547.94754987473</v>
+      </c>
+      <c r="O4" t="n">
         <v>18547.94754987469</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18547.9475498747</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18547.94754987467</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1255619.726081354</v>
+        <v>-1255970.743026341</v>
       </c>
       <c r="C6" t="n">
-        <v>24161.07870313727</v>
+        <v>24161.07870313671</v>
       </c>
       <c r="D6" t="n">
-        <v>28108.42309315197</v>
+        <v>28108.42309315212</v>
       </c>
       <c r="E6" t="n">
-        <v>-215126.7650032922</v>
+        <v>-215161.5029287277</v>
       </c>
       <c r="F6" t="n">
-        <v>110285.6968040633</v>
+        <v>110250.9588786277</v>
       </c>
       <c r="G6" t="n">
-        <v>110285.6968040634</v>
+        <v>110250.9588786277</v>
       </c>
       <c r="H6" t="n">
-        <v>110285.6968040636</v>
+        <v>110250.9588786277</v>
       </c>
       <c r="I6" t="n">
-        <v>110285.6968040634</v>
+        <v>110250.9588786277</v>
       </c>
       <c r="J6" t="n">
-        <v>-106276.7854197173</v>
+        <v>-106311.523345153</v>
       </c>
       <c r="K6" t="n">
-        <v>109332.8082470452</v>
+        <v>109298.0703216095</v>
       </c>
       <c r="L6" t="n">
-        <v>91338.0925344476</v>
+        <v>91329.02646371737</v>
       </c>
       <c r="M6" t="n">
-        <v>13949.05616220253</v>
+        <v>13949.05616220283</v>
       </c>
       <c r="N6" t="n">
         <v>104074.423308888</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203972</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>827.699019368993</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="M2" t="n">
-        <v>6.337924013967044</v>
+        <v>6.337924013966777</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="C3" t="n">
-        <v>3.021293431011145</v>
+        <v>3.021293431011827</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>827.699019368993</v>
       </c>
       <c r="C4" t="n">
-        <v>3.702436033299591</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.699019368993</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299364</v>
+        <v>3.702436033299705</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>827.699019368993</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299591</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>324.9180517995065</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>157.9898994742649</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>98.80994969315923</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>279.6400093689963</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>312.3666675263726</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.3020124313473</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>157.8156224557567</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>57.74929990474911</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28093,10 +28093,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.457657853574055e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.546297485893501e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.83015938635406e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="C34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="D34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="E34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="F34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="G34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="H34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="I34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="J34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="K34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="L34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="M34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="N34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="O34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="P34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="R34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="S34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="T34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="U34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="V34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="W34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="X34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.94672347807268</v>
+        <v>17.94672347807295</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.368865958441351</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H2" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J2" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K2" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L2" t="n">
-        <v>689.4398147367341</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M2" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N2" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O2" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P2" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q2" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R2" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S2" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T2" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U2" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H3" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I3" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J3" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K3" t="n">
-        <v>377.4629606178672</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L3" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M3" t="n">
-        <v>592.2816969034463</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N3" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O3" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P3" t="n">
-        <v>446.3694048776571</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q3" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R3" t="n">
         <v>145.133108903673</v>
       </c>
       <c r="S3" t="n">
-        <v>43.41895423898379</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T3" t="n">
-        <v>9.421964331906993</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,46 +31200,46 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I4" t="n">
-        <v>58.93421126053845</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J4" t="n">
         <v>138.5524065819853</v>
       </c>
       <c r="K4" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O4" t="n">
-        <v>276.9979191894957</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P4" t="n">
-        <v>237.0195727358534</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q4" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R4" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S4" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T4" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722581</v>
+        <v>433.9798411722585</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>255.6522884173729</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K2" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L2" t="n">
-        <v>453.6733997667469</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M2" t="n">
-        <v>536.7884014978928</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1346115329961</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O2" t="n">
-        <v>506.006552833649</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P2" t="n">
-        <v>397.0153901510453</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R2" t="n">
-        <v>58.85023844780966</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K3" t="n">
-        <v>239.6215216435082</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L3" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M3" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N3" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O3" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P3" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19322646531253</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K4" t="n">
-        <v>205.4146738058224</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L4" t="n">
-        <v>318.947368354284</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O4" t="n">
-        <v>301.5830471035354</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P4" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.93802322981092</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502398</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>128.8146617507062</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>98.99320674102603</v>
+        <v>98.99320674102637</v>
       </c>
       <c r="K34" t="n">
-        <v>282.2793118877076</v>
+        <v>282.2793118877079</v>
       </c>
       <c r="L34" t="n">
-        <v>412.2887377972041</v>
+        <v>412.2887377972044</v>
       </c>
       <c r="M34" t="n">
-        <v>444.2191504791178</v>
+        <v>444.2191504791181</v>
       </c>
       <c r="N34" t="n">
-        <v>439.5728564679801</v>
+        <v>439.5728564679804</v>
       </c>
       <c r="O34" t="n">
-        <v>391.2086231841181</v>
+        <v>391.2086231841184</v>
       </c>
       <c r="P34" t="n">
-        <v>313.5784967846976</v>
+        <v>313.578496784698</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.348980777971</v>
+        <v>138.3489807779713</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
